--- a/handkontroll/layout.xlsx
+++ b/handkontroll/layout.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\GitHub\Arduino_material\handkontroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0EB20F-74A3-40CC-A143-54B5493E7D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633097FA-7F8E-486B-9B91-735398651BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15810" windowHeight="9945" xr2:uid="{10B6FF37-F49A-414B-BF0C-8080337D09B8}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15810" windowHeight="9945" activeTab="1" xr2:uid="{10B6FF37-F49A-414B-BF0C-8080337D09B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Suggestions" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>%</t>
   </si>
@@ -91,6 +92,42 @@
   </si>
   <si>
     <t>:</t>
+  </si>
+  <si>
+    <t>RUN MOTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP MOTOR </t>
+  </si>
+  <si>
+    <t>MOTOR STOPPED  &lt;%  &lt;s</t>
+  </si>
+  <si>
+    <t>FORWARD AT ###%</t>
+  </si>
+  <si>
+    <t>REVERSE AT ###%</t>
+  </si>
+  <si>
+    <t>For ##s</t>
+  </si>
+  <si>
+    <t>STOPPED</t>
+  </si>
+  <si>
+    <t>##s remaining at</t>
+  </si>
+  <si>
+    <t>###% forward speed</t>
+  </si>
+  <si>
+    <t>###% reverse speed</t>
+  </si>
+  <si>
+    <t>0s No time set</t>
+  </si>
+  <si>
+    <t>TRY THESE!</t>
   </si>
 </sst>
 </file>
@@ -147,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365D3F38-3556-4FE5-83C4-B82F310AE819}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +713,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A7B044-F1CF-46A1-8791-9FD55C3C8E09}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="str">
+        <f>"  0% Increase speed"</f>
+        <v xml:space="preserve">  0% Increase speed</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="str">
+        <f>"  0% No speed set"</f>
+        <v xml:space="preserve">  0% No speed set</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48598591-4342-47EF-9DEB-3A356C5646FE}">
   <dimension ref="A2:B4"/>
   <sheetViews>

--- a/handkontroll/layout.xlsx
+++ b/handkontroll/layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\GitHub\Arduino_material\handkontroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Arduino_material\handkontroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633097FA-7F8E-486B-9B91-735398651BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951ECC7-A6C0-40EB-B10A-9C744AF2EBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15810" windowHeight="9945" activeTab="1" xr2:uid="{10B6FF37-F49A-414B-BF0C-8080337D09B8}"/>
+    <workbookView xWindow="-12510" yWindow="-19020" windowWidth="19200" windowHeight="10890" xr2:uid="{10B6FF37-F49A-414B-BF0C-8080337D09B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
   <si>
     <t>%</t>
   </si>
@@ -128,15 +128,76 @@
   </si>
   <si>
     <t>TRY THESE!</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,6 +254,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,19 +571,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365D3F38-3556-4FE5-83C4-B82F310AE819}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="B4:H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.7109375" style="1"/>
+    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -569,7 +634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,17 +665,17 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -661,54 +726,432 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="2">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB12" s="3" t="str">
+        <f>"  0% Increase speed"</f>
+        <v xml:space="preserve">  0% Increase speed</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB13" s="3" t="str">
+        <f>"  0% No speed set"</f>
+        <v xml:space="preserve">  0% No speed set</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -716,11 +1159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A7B044-F1CF-46A1-8791-9FD55C3C8E09}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
   </cols>
@@ -810,7 +1253,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
